--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptVDT_TongHopQuyetToanDuAnHoanThanhPhuLuc.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptVDT_TongHopQuyetToanDuAnHoanThanhPhuLuc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prj_web\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Đơn vị tính: &lt;#DonViTinh&gt;</t>
   </si>
   <si>
-    <t>&lt;#Items.GiaTriPheDuyet&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>&lt;#Diadiem&gt;, ngày &lt;#Ngay&gt; tháng &lt;#Thang&gt; năm &lt;#Nam&gt;</t>
   </si>
   <si>
@@ -140,12 +137,6 @@
     <t>&lt;#if(&lt;#Items.IsHangCha&gt;=true;&lt;#format cell(Black)&gt;;)&gt;</t>
   </si>
   <si>
-    <t>&lt;#Items.FGiaTriKiemToan&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriDeNghiQuyetToan&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>&lt;#ThuaLenh1&gt;</t>
   </si>
   <si>
@@ -189,6 +180,18 @@
   </si>
   <si>
     <t>&lt;#Ten5&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.sGiaTriKiemToan&gt;&lt;#AltFormat&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.sGiaTriDeNghiQuyetToan&gt;&lt;#AltFormat&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.sGiaTriPheDuyet&gt;&lt;#AltFormat&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.sGiaTriPheDuyetQDDT&gt;&lt;#AltFormat&gt;</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -426,9 +429,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -473,30 +473,6 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -504,6 +480,30 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,70 +1054,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="31" t="s">
+      <c r="A2" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="15"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="31" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1140,22 +1140,22 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>1</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>2</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>3</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>4</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>5</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>6</v>
       </c>
     </row>
@@ -1166,223 +1166,225 @@
       <c r="B10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="32"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="37"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="37"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="38"/>
-    </row>
-    <row r="23" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37" t="s">
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="37"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-    </row>
-    <row r="27" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="37" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37" t="s">
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="37"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="37" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="37"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="E30" s="38"/>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="E31" s="38"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="E32" s="38"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="37"/>
+      <c r="E34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -2210,7 +2212,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>12</v>
@@ -2219,7 +2221,7 @@
         <v>13</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptVDT_TongHopQuyetToanDuAnHoanThanhPhuLuc.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptVDT_TongHopQuyetToanDuAnHoanThanhPhuLuc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prj_web\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-anhdnt\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,9 @@
     <sheet name="&lt;#Config&gt;" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__Items__">Sheet1!$A$10:$F$10</definedName>
-    <definedName name="KeepRows_1_">Sheet1!$A$16:$F$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$34</definedName>
+    <definedName name="__Items__">Sheet1!$A$11:$F$11</definedName>
+    <definedName name="KeepRows_1_">Sheet1!$A$17:$F$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$35</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -89,36 +89,21 @@
     <t>Sort Fields ("," Separated), ASC or DESC</t>
   </si>
   <si>
-    <t>&lt;#Items.Stt&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
   </si>
   <si>
     <t>Độc lập - Tự do - Hạnh phúc</t>
   </si>
   <si>
-    <t>---------------</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
     <t>Nội dung chi phí</t>
   </si>
   <si>
     <t>Dự án được duyệt hoặc điều chỉnh</t>
   </si>
   <si>
-    <t>Dự toán (TDT) được duyệt hoặc điều chỉnh</t>
-  </si>
-  <si>
     <t>Kết quả thanh tra, kiểm toán (nếu có)</t>
   </si>
   <si>
-    <t>&lt;#TieuDe&gt;</t>
-  </si>
-  <si>
     <t>&lt;#Items.TenChiPhi&gt;&lt;#AltFormat&gt;</t>
   </si>
   <si>
@@ -192,13 +177,31 @@
   </si>
   <si>
     <t>&lt;#Items.sGiaTriPheDuyetQDDT&gt;&lt;#AltFormat&gt;</t>
+  </si>
+  <si>
+    <t>CHI PHÍ ĐẦU TƯ ĐỀ NGHỊ QUYẾT TOÁN</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Tổng số</t>
+  </si>
+  <si>
+    <t>Dự toán được duyệt hoặc điều chỉnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dự án: &lt;#TenDuAn&gt;         </t>
+  </si>
+  <si>
+    <t>&lt;#Items.MaOrderDb&gt;&lt;#AltFormat&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,13 +261,6 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="1"/>
@@ -286,7 +282,21 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <u/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -402,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -416,33 +426,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -465,23 +460,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,17 +503,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1039,17 +1055,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1063,55 +1082,53 @@
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="38"/>
-      <c r="C2" s="14"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="14"/>
-      <c r="D3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="36" t="s">
-        <v>22</v>
-      </c>
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -1119,304 +1136,305 @@
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
     </row>
-    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+    </row>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="F9" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>1</v>
-      </c>
-      <c r="B9" s="26">
-        <v>2</v>
-      </c>
-      <c r="C9" s="27">
-        <v>3</v>
-      </c>
-      <c r="D9" s="27">
-        <v>4</v>
-      </c>
-      <c r="E9" s="27">
-        <v>5</v>
-      </c>
-      <c r="F9" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="37" t="s">
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="37"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32" t="s">
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32" t="s">
+      <c r="F24" s="32"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="23" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32" t="s">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32" t="s">
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="E33" s="29"/>
-    </row>
-    <row r="34" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="32"/>
+      <c r="E35" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C23:D23"/>
+  <mergeCells count="30">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2212,7 +2230,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>12</v>
@@ -2221,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
